--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-observation-microbiology.xlsx
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding:jlac10.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200119.4.504</t>
+    <t>http://medis.or.jp/CodeSystem/master-JLAC10-17digits</t>
   </si>
   <si>
     <t>Observation.code.coding:jlac10.version</t>
